--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/OKLAHOMA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/OKLAHOMA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D882"/>
+  <dimension ref="A1:D876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="13">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C31">
@@ -804,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="33">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C47">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C49">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C56">
@@ -1316,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="72">
@@ -1543,14 +1543,14 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C89">
         <v>6</v>
       </c>
       <c r="D89">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="90">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C91">
@@ -1751,7 +1751,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C105">
@@ -1977,14 +1977,14 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C122">
         <v>6</v>
       </c>
       <c r="D122">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="123">
@@ -2106,13 +2106,13 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C136">
@@ -2267,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="D143">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="144">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C150">
@@ -2532,13 +2532,13 @@
         <v>6</v>
       </c>
       <c r="D163">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C164">
@@ -2558,7 +2558,7 @@
         <v>6</v>
       </c>
       <c r="D165">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="166">
@@ -2571,7 +2571,7 @@
         <v>6</v>
       </c>
       <c r="D166">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="167">
@@ -2590,7 +2590,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C168">
@@ -2668,7 +2668,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C174">
@@ -2681,7 +2681,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C175">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C176">
@@ -2785,12 +2785,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C183">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C187">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C196">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C200">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C219">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C223">
@@ -3343,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="D225">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="226">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C235">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C242">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C246">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C253">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C257">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C259">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C260">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C262">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C266">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C271">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C273">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,20 +4048,20 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C279">
         <v>6</v>
       </c>
       <c r="D279">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C281">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C283">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C291">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C302">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C306">
@@ -4580,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="D319">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="320">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C321">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C323">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C325">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C326">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C328">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C331">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C334">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C335">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C336">
@@ -4897,7 +4897,7 @@
         <v>6</v>
       </c>
       <c r="D343">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="344">
@@ -4916,7 +4916,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C345">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C346">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C349">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C352">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C353">
@@ -5040,7 +5040,7 @@
         <v>6</v>
       </c>
       <c r="D354">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="355">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C358">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C361">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C367">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C372">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C377">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C379">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C380">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C382">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C383">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C386">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C389">
@@ -5508,7 +5508,7 @@
         <v>6</v>
       </c>
       <c r="D390">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="391">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C396">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C398">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C401">
@@ -5831,7 +5831,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C415">
@@ -6163,7 +6163,7 @@
         <v>6</v>
       </c>
       <c r="D440">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="441">
@@ -6254,7 +6254,7 @@
         <v>6</v>
       </c>
       <c r="D447">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="448">
@@ -6332,7 +6332,7 @@
         <v>6</v>
       </c>
       <c r="D453">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="454">
@@ -6377,7 +6377,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C457">
@@ -6590,7 +6590,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C473">
@@ -6642,7 +6642,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C477">
@@ -6694,7 +6694,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C481">
@@ -6707,7 +6707,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C482">
@@ -6766,7 +6766,7 @@
         <v>59</v>
       </c>
       <c r="D486">
-        <v>0.009220190654789811</v>
+        <v>0.009220190654789812</v>
       </c>
     </row>
     <row r="487">
@@ -6829,7 +6829,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C491">
@@ -7055,7 +7055,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C508">
@@ -7068,7 +7068,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C509">
@@ -7107,7 +7107,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C512">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C518">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C523">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C524">
@@ -7281,14 +7281,14 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C525">
         <v>6</v>
       </c>
       <c r="D525">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="526">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C528">
@@ -7333,33 +7333,33 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C529">
         <v>6</v>
       </c>
       <c r="D529">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C530">
         <v>6</v>
       </c>
       <c r="D530">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C531">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C534">
@@ -7444,7 +7444,7 @@
         <v>6</v>
       </c>
       <c r="D537">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="538">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C548">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C586">
@@ -8157,7 +8157,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C592">
@@ -8339,7 +8339,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C606">
@@ -8365,7 +8365,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C608">
@@ -8495,7 +8495,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C618">
@@ -8534,7 +8534,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C621">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C631">
@@ -8695,7 +8695,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C633">
@@ -8728,13 +8728,13 @@
         <v>6</v>
       </c>
       <c r="D635">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C636">
@@ -8747,7 +8747,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C637">
@@ -8773,7 +8773,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C639">
@@ -8799,7 +8799,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C641">
@@ -8850,7 +8850,7 @@
         <v>6</v>
       </c>
       <c r="D644">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="645">
@@ -8863,7 +8863,7 @@
         <v>6</v>
       </c>
       <c r="D645">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="646">
@@ -8913,7 +8913,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C649">
@@ -8991,7 +8991,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C655">
@@ -9095,7 +9095,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C663">
@@ -9147,7 +9147,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C667">
@@ -9167,7 +9167,7 @@
         <v>59</v>
       </c>
       <c r="D668">
-        <v>0.009220190654789811</v>
+        <v>0.009220190654789812</v>
       </c>
     </row>
     <row r="669">
@@ -9212,7 +9212,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C672">
@@ -9225,7 +9225,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C673">
@@ -9329,7 +9329,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C681">
@@ -9342,7 +9342,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C682">
@@ -9355,7 +9355,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C683">
@@ -9368,7 +9368,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C684">
@@ -9381,7 +9381,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C685">
@@ -9645,7 +9645,7 @@
         <v>6</v>
       </c>
       <c r="D704">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="705">
@@ -9671,7 +9671,7 @@
         <v>6</v>
       </c>
       <c r="D706">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="707">
@@ -10077,7 +10077,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C737">
@@ -10199,20 +10199,20 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C746">
         <v>6</v>
       </c>
       <c r="D746">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C747">
@@ -10360,7 +10360,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C758">
@@ -10399,7 +10399,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C761">
@@ -10438,7 +10438,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C764">
@@ -10451,7 +10451,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C765">
@@ -10529,14 +10529,14 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C771">
         <v>6</v>
       </c>
       <c r="D771">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="772">
@@ -10594,7 +10594,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C776">
@@ -10607,7 +10607,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C777">
@@ -10633,7 +10633,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C779">
@@ -10646,7 +10646,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C780">
@@ -10711,7 +10711,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C785">
@@ -10763,7 +10763,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C789">
@@ -10789,7 +10789,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C791">
@@ -10828,7 +10828,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C794">
@@ -10880,7 +10880,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C798">
@@ -10932,7 +10932,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C802">
@@ -10958,7 +10958,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C804">
@@ -11023,7 +11023,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C809">
@@ -11062,7 +11062,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C812">
@@ -11147,7 +11147,7 @@
         <v>6</v>
       </c>
       <c r="D818">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="819">
@@ -11384,7 +11384,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C836">
@@ -11410,7 +11410,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C838">
@@ -11560,7 +11560,7 @@
         <v>6</v>
       </c>
       <c r="D849">
-        <v>0.0009376465072667605</v>
+        <v>0.0009376465072667604</v>
       </c>
     </row>
     <row r="850">
@@ -11631,7 +11631,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C855">
@@ -11761,7 +11761,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C865">
@@ -11774,7 +11774,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C866">
@@ -11826,7 +11826,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C870">
@@ -11912,41 +11912,6 @@
       </c>
       <c r="D876">
         <v>1</v>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
